--- a/Cache Table.xlsx
+++ b/Cache Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tejas/Desktop/Cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FAB6F66-4A2F-7D40-806C-DB183E9B169A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7965DC-2A58-374C-8944-5417F3F583CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{B1ADA595-64B7-D145-B919-874B40228F91}"/>
   </bookViews>

--- a/Cache Table.xlsx
+++ b/Cache Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tejas/Desktop/Cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7965DC-2A58-374C-8944-5417F3F583CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651DEDD0-5CB4-9447-B587-0B7BDA1B489C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{B1ADA595-64B7-D145-B919-874B40228F91}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Associativity/Program</t>
   </si>
@@ -41,16 +41,55 @@
     <t>Program 1 (sorting)</t>
   </si>
   <si>
-    <t>472/524 = 91.22 %</t>
-  </si>
-  <si>
     <t>Program 2 (LU decomposition)</t>
   </si>
   <si>
     <t>Program 3 (matrix multiplication)</t>
   </si>
   <si>
-    <t>39899/41831 = 95.38%</t>
+    <t>32kB 8</t>
+  </si>
+  <si>
+    <t>32kB 1</t>
+  </si>
+  <si>
+    <t>16kB 16</t>
+  </si>
+  <si>
+    <t>9003/9074 = 99.2175</t>
+  </si>
+  <si>
+    <t>41759/41831 = 99.8279</t>
+  </si>
+  <si>
+    <t>484/523 = 92.5430</t>
+  </si>
+  <si>
+    <t>41758/41831 = 99.8255%</t>
+  </si>
+  <si>
+    <t>DPS Sir's configs</t>
+  </si>
+  <si>
+    <t>Anvadya's configs (Blocks = 32)</t>
+  </si>
+  <si>
+    <t>39095/41831 = 93.4594</t>
+  </si>
+  <si>
+    <t>8473/9074 = 93.3767</t>
+  </si>
+  <si>
+    <t>39504/41831 = 94.4371</t>
+  </si>
+  <si>
+    <t>462/523 = 88.3365</t>
+  </si>
+  <si>
+    <t>39511/41831 = 94.4539</t>
+  </si>
+  <si>
+    <t>7904/9074 = 87.1060</t>
   </si>
 </sst>
 </file>
@@ -86,8 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,56 +447,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F4FF85-C0DC-8F41-9A62-8726C3CFB3A9}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1">
-        <v>8</v>
-      </c>
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Cache Table.xlsx
+++ b/Cache Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tejas/Desktop/Cache/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651DEDD0-5CB4-9447-B587-0B7BDA1B489C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17953FFB-960C-4B0B-BBC6-A717D8AB469A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{B1ADA595-64B7-D145-B919-874B40228F91}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1ADA595-64B7-D145-B919-874B40228F91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>DPS Sir's configs</t>
   </si>
   <si>
-    <t>Anvadya's configs (Blocks = 32)</t>
-  </si>
-  <si>
     <t>39095/41831 = 93.4594</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>7904/9074 = 87.1060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Anvadya's configs (Blocks = 32)</t>
   </si>
 </sst>
 </file>
@@ -447,21 +447,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F4FF85-C0DC-8F41-9A62-8726C3CFB3A9}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.19921875" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.69921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -469,21 +469,21 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -497,21 +497,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -525,74 +525,79 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
